--- a/org.trimatek.digideal.ui/ui-releases.xlsx
+++ b/org.trimatek.digideal.ui/ui-releases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>versión</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>crear contrato #72IJKPY</t>
+  </si>
+  <si>
+    <t>0.22.1</t>
+  </si>
+  <si>
+    <t>tickets funciona</t>
+  </si>
+  <si>
+    <t>crear ticket</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -373,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,6 +438,29 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43381</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43381</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
